--- a/tests/fixtures/filter.xlsx
+++ b/tests/fixtures/filter.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iuliagheorghita/git/pycel/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A95B58-68E2-E244-A615-0A3EBDA76C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941DFC07-557A-F246-8F0B-B7F994D8C9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="500" windowWidth="27240" windowHeight="16440" xr2:uid="{DE8FF90D-43BF-0A46-B403-CEC309F7F19F}"/>
+    <workbookView xWindow="6180" yWindow="1660" windowWidth="27240" windowHeight="16440" xr2:uid="{DE8FF90D-43BF-0A46-B403-CEC309F7F19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -338,18 +338,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -365,6 +356,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,584 +740,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C21B4BC-86BE-2440-945E-F284CBF5CE4A}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="str" cm="1">
+      <c r="F2" s="10" t="str" cm="1">
         <f t="array" ref="F2:I5">_xlfn._xlws.FILTER(A3:D19,A3:A19="FL")</f>
         <v>FL</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="8">
         <v>2020</v>
       </c>
-      <c r="H2" s="11" t="str">
+      <c r="H2" s="8" t="str">
         <v>Orange</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="9">
         <v>4621</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="1" t="str" cm="1">
         <f t="array" ref="K2">_xlfn._xlws.FILTER(A3:D3,A5:D5="Apple","")</f>
         <v>Orange</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="10" t="str" cm="1">
+        <f t="array" ref="M2:P3">_xlfn._xlws.FILTER(A3:D4,D6:D7)</f>
+        <v>FL</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2020</v>
+      </c>
+      <c r="O2" s="8" t="str">
+        <v>Orange</v>
+      </c>
+      <c r="P2" s="9">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>2020</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>4621</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="2" t="str">
         <v>FL</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>2019</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="3" t="str">
         <v>Peach</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>4029</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5" t="str">
+        <v>TX</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2020</v>
+      </c>
+      <c r="O3" s="6" t="str">
+        <v>Avocado</v>
+      </c>
+      <c r="P3" s="7">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>2020</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>3462</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="2" t="str">
         <v>FL</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>2018</v>
       </c>
-      <c r="H4" s="6" t="str">
+      <c r="H4" s="3" t="str">
         <v>Banana</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>2098</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="14" t="str" cm="1">
+      <c r="J4" s="3"/>
+      <c r="K4" s="11" t="str" cm="1">
         <f t="array" ref="K4:K6">_xlfn._xlws.FILTER(A3:A19,C3:C19="Avocado","")</f>
         <v>TX</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>2020</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>4349</v>
       </c>
-      <c r="F5" s="8" t="str">
+      <c r="F5" s="5" t="str">
         <v>FL</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>2017</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="6" t="str">
         <v>Avocado</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>5827</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="15" t="str">
+      <c r="J5" s="3"/>
+      <c r="K5" s="12" t="str">
         <v>CA</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>2020</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>1354</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="16" t="str">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13" t="str">
         <v>FL</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>2019</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>2342</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>2018</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>5674</v>
       </c>
-      <c r="F8" s="13" t="str" cm="1">
+      <c r="F8" s="10" t="str" cm="1">
         <f t="array" ref="F8:I9">_xlfn._xlws.FILTER(A3:D19,(C3:C19="Peach")*(A3:A19="NY"),"")</f>
         <v>NY</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <v>2019</v>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="8" t="str">
         <v>Peach</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>2342</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="17" t="str" cm="1">
+      <c r="J8" s="3"/>
+      <c r="K8" s="14" t="str" cm="1">
         <f t="array" ref="K8:N8">_xlfn._xlws.FILTER(A4:D4,A3="FL","")</f>
         <v>TX</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <v>2020</v>
       </c>
-      <c r="M8" s="18" t="str">
+      <c r="M8" s="15" t="str">
         <v>Avocado</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="16">
         <v>3462</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>2019</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>4454</v>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" s="5" t="str">
         <v>NY</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>2018</v>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="H9" s="6" t="str">
         <v>Peach</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>5674</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>2019</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>4029</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="1" t="e" cm="1" vm="1">
         <f t="array" ref="K10">_xlfn._xlws.FILTER(A3:D3,A4:D4="Apple")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>2018</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>2098</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>2017</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>5827</v>
       </c>
-      <c r="F12" s="13" t="str" cm="1">
+      <c r="F12" s="10" t="str" cm="1">
         <f t="array" ref="F12:I16">_xlfn._xlws.FILTER(A3:D19,(C3:C19="Apple")+(A3:A19="CA"),"")</f>
         <v>NY</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>2020</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="8" t="str">
         <v>Apple</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <v>4349</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="13" cm="1">
+      <c r="J12" s="3"/>
+      <c r="K12" s="10" cm="1">
         <f t="array" ref="K12:L13">_xlfn._xlws.FILTER(A21:C22,A21:C21=1,"")</f>
         <v>1</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="9">
         <v>1</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="M12" s="3"/>
+      <c r="N12" s="1" t="e" cm="1">
+        <f t="array" ref="N12">_xlfn._xlws.FILTER(A21:A23,B21:C23=2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P12" s="11" t="str" cm="1">
+        <f t="array" ref="P12:P14">_xlfn._xlws.FILTER(A3:A5,C7="Peach")</f>
+        <v>FL</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>2018</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>3874</v>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="2" t="str">
         <v>CA</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>2020</v>
       </c>
-      <c r="H13" s="6" t="str">
+      <c r="H13" s="3" t="str">
         <v>Avocado</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>1354</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="8">
+      <c r="J13" s="3"/>
+      <c r="K13" s="5">
         <v>3</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="7">
         <v>1</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="12" t="str">
+        <v>TX</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>2017</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>1875</v>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="2" t="str">
         <v>MA</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>2017</v>
       </c>
-      <c r="H14" s="6" t="str">
+      <c r="H14" s="3" t="str">
         <v>Apple</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>1875</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1" t="e" cm="1">
+        <f t="array" ref="N14">_xlfn._xlws.FILTER(A3:D5,D7:D10,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P14" s="13" t="str">
+        <v>NY</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>2017</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>9864</v>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="2" t="str">
         <v>CA</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>2018</v>
       </c>
-      <c r="H15" s="6" t="str">
+      <c r="H15" s="3" t="str">
         <v>Pear</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>8365</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="13" cm="1">
+      <c r="J15" s="3"/>
+      <c r="K15" s="10" cm="1">
         <f t="array" ref="K15:L16">_xlfn._xlws.FILTER(A21:B23,C21:C23=1)</f>
         <v>1</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="9">
         <v>2</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>2017</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>9585</v>
       </c>
-      <c r="F16" s="8" t="str">
+      <c r="F16" s="5" t="str">
         <v>CA</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>2017</v>
       </c>
-      <c r="H16" s="9" t="str">
+      <c r="H16" s="6" t="str">
         <v>Apple</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <v>1486</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="8">
+      <c r="J16" s="3"/>
+      <c r="K16" s="5">
         <v>3</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="7">
         <v>4</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1" t="e" cm="1">
+        <f t="array" ref="N16">_xlfn._xlws.FILTER(A21:C23,C3="Orange")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P16" s="14" t="str" cm="1">
+        <f t="array" ref="P16:S16">_xlfn._xlws.FILTER(A3:D3,C5="Apple")</f>
+        <v>FL</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>2020</v>
+      </c>
+      <c r="R16" s="15" t="str">
+        <v>Orange</v>
+      </c>
+      <c r="S16" s="16">
+        <v>4621</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>2018</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>8365</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>2017</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>1486</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>4</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <v>3</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>5</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
